--- a/Computational_Data/Misc/OO_Bond_Scans/OO_Bond_Scans.xlsx
+++ b/Computational_Data/Misc/OO_Bond_Scans/OO_Bond_Scans.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Misc/OO_Bond_Scans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C8C677-913B-294C-A47D-DA2617FB0622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14260" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMe-Cis-Mono-D-0" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="GAlt-Mono-S-0" sheetId="3" r:id="rId5"/>
     <sheet name="GAlt-Mono-T-0" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,9 +38,6 @@
     <t>Energy (Hartree)</t>
   </si>
   <si>
-    <t>Energy (kcal/mol)</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -81,12 +84,15 @@
   </si>
   <si>
     <t>[$\bf{B-Mono}$]D$_{0}$</t>
+  </si>
+  <si>
+    <t>Energy (kJ/mol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -190,6 +196,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -514,16 +528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,104 +545,105 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.8119999999999998</v>
       </c>
       <c r="B2" s="1">
         <v>-1239.8379029499999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>-11</v>
+        <f>-11*4.184</f>
+        <v>-46.024000000000001</v>
       </c>
       <c r="G2" s="1">
         <v>0.05</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.5387</v>
       </c>
       <c r="B3" s="1">
         <v>-1239.8351893700001</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.70279722901</v>
+      <c r="C3">
+        <v>7.1245036061778402</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.2654000000000001</v>
       </c>
       <c r="B4" s="1">
         <v>-1239.8286524</v>
       </c>
-      <c r="C4" s="1">
-        <v>5.8048080052250004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>24.287316693861403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1.9921</v>
       </c>
       <c r="B5" s="1">
         <v>-1239.81375368</v>
       </c>
-      <c r="C5" s="1">
-        <v>15.153896343065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>63.403902299383965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.7188000000000001</v>
       </c>
       <c r="B6" s="1">
         <v>-1239.77798454</v>
       </c>
-      <c r="C6" s="1">
-        <v>37.599371499895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>157.31577035556069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.4455</v>
       </c>
       <c r="B7" s="1">
         <v>-1239.7862880099999</v>
       </c>
-      <c r="C7" s="1">
-        <v>32.388865191930002</v>
+      <c r="C7">
+        <v>135.51501196303514</v>
       </c>
     </row>
   </sheetData>
@@ -643,16 +658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,103 +675,104 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.6989999999999998</v>
       </c>
       <c r="B2" s="1">
         <v>-1239.8544821800001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>0.05</v>
       </c>
       <c r="F2" s="1">
-        <v>-29.5</v>
+        <f>-29.5*4.184</f>
+        <v>-123.42800000000001</v>
       </c>
       <c r="G2" s="1">
         <v>0.45</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.4489999999999998</v>
       </c>
       <c r="B3" s="1">
         <v>-1239.85040321</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.559592425215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3">
+        <v>10.709334707099559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.1989999999999998</v>
       </c>
       <c r="B4" s="1">
         <v>-1239.8332423100001</v>
       </c>
-      <c r="C4" s="1">
-        <v>13.328220203764999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>55.765273332552759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1.9490000000000001</v>
       </c>
       <c r="B5" s="1">
         <v>-1239.80909346</v>
       </c>
-      <c r="C5" s="1">
-        <v>28.48185299284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>119.16807292204257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.6990000000000001</v>
       </c>
       <c r="B6" s="1">
         <v>-1239.7666689</v>
       </c>
-      <c r="C6" s="1">
-        <v>55.103667426160001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>230.55374451105345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.4490000000000001</v>
       </c>
       <c r="B7" s="1">
         <v>-1239.7761155999999</v>
       </c>
-      <c r="C7" s="1">
-        <v>49.175773432509999</v>
+      <c r="C7">
+        <v>205.75143604162184</v>
       </c>
     </row>
   </sheetData>
@@ -770,16 +786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,116 +803,116 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.71</v>
       </c>
       <c r="B2" s="1">
         <v>-1554.61400374</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.5819999999999999</v>
       </c>
       <c r="B3" s="1">
         <v>-1554.6131650499999</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.52628594255500005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3">
+        <v>2.2019803836501204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.4540000000000002</v>
       </c>
       <c r="B4" s="1">
         <v>-1554.61022744</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.3696641248499999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>9.9146746983723997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.3260000000000001</v>
       </c>
       <c r="B5" s="1">
         <v>-1554.6042515700001</v>
       </c>
-      <c r="C5" s="1">
-        <v>6.1195793206150002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>25.604319877453161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.198</v>
       </c>
       <c r="B6" s="1">
         <v>-1554.59372994</v>
       </c>
-      <c r="C6" s="1">
-        <v>12.722002101099999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>53.2288567910024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.0950000000000002</v>
       </c>
       <c r="B7" s="1">
         <v>-1554.5804604800001</v>
       </c>
-      <c r="C7" s="1">
-        <v>21.048714310969999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7">
+        <v>88.067820677098481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.0699999999999998</v>
       </c>
       <c r="B8" s="1">
         <v>-1554.5764279800001</v>
       </c>
-      <c r="C8" s="1">
-        <v>23.57914636972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8">
+        <v>98.655148410908481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.829</v>
       </c>
       <c r="B9" s="1">
         <v>-1554.5299185199999</v>
       </c>
-      <c r="C9" s="1">
-        <v>52.764274359589997</v>
+      <c r="C9">
+        <v>220.76572392052455</v>
       </c>
     </row>
   </sheetData>
@@ -911,16 +927,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,136 +944,137 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.76</v>
       </c>
       <c r="B2" s="1">
         <v>-1554.66562034</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>0.05</v>
       </c>
       <c r="F2" s="1">
-        <v>-45</v>
+        <f>-45*4.184</f>
+        <v>-188.28</v>
       </c>
       <c r="G2" s="1">
         <v>0.05</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.6269999999999998</v>
       </c>
       <c r="B3" s="1">
         <v>-1554.6648365000001</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.49186704648000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3">
+        <v>2.05797172247232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.4940000000000002</v>
       </c>
       <c r="B4" s="1">
         <v>-1554.6621181</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.19768887128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>9.1951302374355208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.3610000000000002</v>
       </c>
       <c r="B5" s="1">
         <v>-1554.65658018</v>
       </c>
-      <c r="C5" s="1">
-        <v>5.6727862815199996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>23.734937801879678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.2280000000000002</v>
       </c>
       <c r="B6" s="1">
         <v>-1554.64671034</v>
       </c>
-      <c r="C6" s="1">
-        <v>11.866204645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>49.648200234680004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.0950000000000002</v>
       </c>
       <c r="B7" s="1">
         <v>-1554.6301452299999</v>
       </c>
-      <c r="C7" s="1">
-        <v>22.260968538545001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7">
+        <v>93.139892365272289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1.962</v>
       </c>
       <c r="B8" s="1">
         <v>-1554.60381095</v>
       </c>
-      <c r="C8" s="1">
-        <v>38.785979414205002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8">
+        <v>162.28053786903374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.829</v>
       </c>
       <c r="B9" s="1">
         <v>-1554.5660010199999</v>
       </c>
-      <c r="C9" s="1">
-        <v>62.512069683539998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9">
+        <v>261.55049955593137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.696</v>
       </c>
       <c r="B10" s="1">
         <v>-1554.53655172</v>
       </c>
-      <c r="C10" s="1">
-        <v>80.991785201889996</v>
+      <c r="C10">
+        <v>338.86962928470774</v>
       </c>
     </row>
   </sheetData>
@@ -1072,16 +1089,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,149 +1106,149 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.87</v>
       </c>
       <c r="B2" s="1">
         <v>-1553.33330867</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.726</v>
       </c>
       <c r="B3" s="1">
         <v>-1553.32981733</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.1908490177300002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3">
+        <v>9.1665122901823217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.5819999999999999</v>
       </c>
       <c r="B4" s="1">
         <v>-1553.3220655600001</v>
       </c>
-      <c r="C4" s="1">
-        <v>7.0551583345450002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>29.518782471736284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4380000000000002</v>
       </c>
       <c r="B5" s="1">
         <v>-1553.30934278</v>
       </c>
-      <c r="C5" s="1">
-        <v>15.038823650955001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>62.922438155595728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.294</v>
       </c>
       <c r="B6" s="1">
         <v>-1553.29064761</v>
       </c>
-      <c r="C6" s="1">
-        <v>26.770220430070001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>112.00660227941289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.15</v>
       </c>
       <c r="B7" s="1">
         <v>-1553.26554743</v>
       </c>
-      <c r="C7" s="1">
-        <v>42.520821831779998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7">
+        <v>177.9071185441675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.0059999999999998</v>
       </c>
       <c r="B8" s="1">
         <v>-1553.30043998</v>
       </c>
-      <c r="C8" s="1">
-        <v>20.625415227554999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8">
+        <v>86.296737312090116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.8620000000000001</v>
       </c>
       <c r="B9" s="1">
         <v>-1553.3187018900001</v>
       </c>
-      <c r="C9" s="1">
-        <v>9.1658932144099996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9">
+        <v>38.350097209091437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.718</v>
       </c>
       <c r="B10" s="1">
         <v>-1553.3370952800001</v>
       </c>
-      <c r="C10" s="1">
-        <v>-2.376133747795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="C10">
+        <v>-9.9417436007742808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.5740000000000001</v>
       </c>
       <c r="B11" s="1">
         <v>-1553.3525822199999</v>
       </c>
-      <c r="C11" s="1">
-        <v>-12.094335723725001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11">
+        <v>-50.602700668065403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.43</v>
       </c>
       <c r="B12" s="1">
         <v>-1553.36020416</v>
       </c>
-      <c r="C12" s="1">
-        <v>-16.877175482155</v>
+      <c r="C12">
+        <v>-70.614102217336523</v>
       </c>
     </row>
   </sheetData>
@@ -1246,16 +1263,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,136 +1280,137 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.87</v>
       </c>
       <c r="B2" s="1">
         <v>-1553.3368831499999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>-20</v>
+        <f>-20*4.184</f>
+        <v>-83.68</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.726</v>
       </c>
       <c r="B3" s="1">
         <v>-1553.33536592</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.95207623868500002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3">
+        <v>3.9834869826580404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.5819999999999999</v>
       </c>
       <c r="B4" s="1">
         <v>-1553.33062324</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.928152994145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>16.435392127502681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4380000000000002</v>
       </c>
       <c r="B5" s="1">
         <v>-1553.3298294599999</v>
       </c>
-      <c r="C5" s="1">
-        <v>4.4262574850550003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>18.519461317470121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.294</v>
       </c>
       <c r="B6" s="1">
         <v>-1553.3277752700001</v>
       </c>
-      <c r="C6" s="1">
-        <v>5.71528122486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>23.912736644814242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.15</v>
       </c>
       <c r="B7" s="1">
         <v>-1553.3248476900001</v>
       </c>
-      <c r="C7" s="1">
-        <v>7.5523654868700003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7">
+        <v>31.599097197064083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.0059999999999998</v>
       </c>
       <c r="B8" s="1">
         <v>-1553.31965403</v>
       </c>
-      <c r="C8" s="1">
-        <v>10.811436476640001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8">
+        <v>45.235050218261769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.8620000000000001</v>
       </c>
       <c r="B9" s="1">
         <v>-1553.31014809</v>
       </c>
-      <c r="C9" s="1">
-        <v>16.776504133069999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9">
+        <v>70.192893292764879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.718</v>
       </c>
       <c r="B10" s="1">
         <v>-1553.2941074400001</v>
       </c>
-      <c r="C10" s="1">
-        <v>26.842164394245</v>
+      <c r="C10">
+        <v>112.30761582552108</v>
       </c>
     </row>
   </sheetData>
